--- a/BackTest/2020-01-12 BackTest LTC.xlsx
+++ b/BackTest/2020-01-12 BackTest LTC.xlsx
@@ -941,17 +941,13 @@
         <v>54590.83333333334</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>54000</v>
-      </c>
-      <c r="K16" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
@@ -986,11 +982,9 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>53800</v>
-      </c>
-      <c r="K17" t="n">
         <v>54000</v>
       </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -1031,9 +1025,7 @@
       <c r="J18" t="n">
         <v>54000</v>
       </c>
-      <c r="K18" t="n">
-        <v>54000</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1072,11 +1064,9 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>54250</v>
-      </c>
-      <c r="K19" t="n">
-        <v>54000</v>
-      </c>
+        <v>54100</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1109,17 +1099,13 @@
         <v>54528.33333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>54250</v>
-      </c>
-      <c r="K20" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1152,17 +1138,13 @@
         <v>54518.33333333334</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>54250</v>
-      </c>
-      <c r="K21" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1195,17 +1177,13 @@
         <v>54511.66666666666</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>54250</v>
-      </c>
-      <c r="K22" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1238,17 +1216,13 @@
         <v>54506.66666666666</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>54250</v>
-      </c>
-      <c r="K23" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1281,17 +1255,13 @@
         <v>54503.33333333334</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>54350</v>
-      </c>
-      <c r="K24" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1330,9 +1300,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>54000</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1371,9 +1339,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>54000</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1406,17 +1372,13 @@
         <v>54490.83333333334</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>54200</v>
-      </c>
-      <c r="K27" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1449,17 +1411,13 @@
         <v>54482.5</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>54200</v>
-      </c>
-      <c r="K28" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1492,17 +1450,13 @@
         <v>54472.5</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K29" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1535,17 +1489,13 @@
         <v>54462.5</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K30" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1578,17 +1528,13 @@
         <v>54450</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>53950</v>
-      </c>
-      <c r="K31" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1621,17 +1567,13 @@
         <v>54439.16666666666</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K32" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1664,17 +1606,13 @@
         <v>54429.16666666666</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>54000</v>
-      </c>
-      <c r="K33" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1707,17 +1645,13 @@
         <v>54415</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>54000</v>
-      </c>
-      <c r="K34" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1750,17 +1684,13 @@
         <v>54395</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>53950</v>
-      </c>
-      <c r="K35" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1793,17 +1723,13 @@
         <v>54374.16666666666</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>54000</v>
-      </c>
-      <c r="K36" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1836,17 +1762,13 @@
         <v>54360.83333333334</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K37" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1879,17 +1801,13 @@
         <v>54350</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>54100</v>
-      </c>
-      <c r="K38" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1922,17 +1840,13 @@
         <v>54343.33333333334</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>54250</v>
-      </c>
-      <c r="K39" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1965,17 +1879,13 @@
         <v>54340.83333333334</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K40" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2008,17 +1918,13 @@
         <v>54331.66666666666</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K41" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2051,17 +1957,13 @@
         <v>54323.33333333334</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>54400</v>
-      </c>
-      <c r="K42" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2094,17 +1996,13 @@
         <v>54311.66666666666</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>54400</v>
-      </c>
-      <c r="K43" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2137,17 +2035,13 @@
         <v>54303.33333333334</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>54400</v>
-      </c>
-      <c r="K44" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2180,17 +2074,13 @@
         <v>54307.5</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>54600</v>
-      </c>
-      <c r="K45" t="n">
-        <v>54000</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2229,9 +2119,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>54000</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2270,9 +2158,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>54000</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2311,9 +2197,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>54000</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2352,9 +2236,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>54000</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2393,9 +2275,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>54000</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2431,20 +2311,16 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>54000</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2475,14 +2351,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2516,14 +2386,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2557,14 +2421,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2598,14 +2456,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2639,14 +2491,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2680,14 +2526,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2721,14 +2561,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2762,14 +2596,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2803,14 +2631,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2844,14 +2666,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2885,14 +2701,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2926,14 +2736,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2967,14 +2771,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3008,14 +2806,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3049,14 +2841,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3090,14 +2876,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3131,14 +2911,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3172,14 +2946,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3213,14 +2981,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3254,14 +3016,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3295,14 +3051,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3336,14 +3086,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3377,14 +3121,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3418,14 +3156,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3459,14 +3191,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3500,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3541,14 +3261,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3582,14 +3296,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3623,14 +3331,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3664,14 +3366,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3705,14 +3401,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3746,14 +3436,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3787,14 +3471,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3828,14 +3506,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3869,14 +3541,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3910,14 +3576,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3951,14 +3611,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3992,14 +3646,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4030,17 +3678,11 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4074,14 +3716,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4115,14 +3751,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4156,14 +3786,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4197,14 +3821,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4235,17 +3853,11 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4279,14 +3891,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4320,14 +3926,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4361,14 +3961,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4402,14 +3996,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4443,14 +4031,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4484,14 +4066,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4525,14 +4101,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4566,14 +4136,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4607,14 +4171,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4648,14 +4206,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4686,19 +4238,13 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>54000</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>1.026481481481482</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -11307,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
@@ -17642,7 +17188,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
@@ -17712,7 +17258,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
@@ -21209,13 +20755,17 @@
         <v>55318.33333333334</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
       </c>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>54350</v>
+      </c>
+      <c r="K578" t="n">
+        <v>54350</v>
+      </c>
       <c r="L578" t="inlineStr"/>
       <c r="M578" t="n">
         <v>1</v>
@@ -21244,14 +20794,22 @@
         <v>55298.33333333334</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
       </c>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K579" t="n">
+        <v>54350</v>
+      </c>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21279,14 +20837,22 @@
         <v>55279.16666666666</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
       </c>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>54350</v>
+      </c>
+      <c r="K580" t="n">
+        <v>54350</v>
+      </c>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -23452,7 +23018,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest LTC.xlsx
+++ b/BackTest/2020-01-12 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>2124.491326060001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2100.344626060001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -2827,11 +2827,17 @@
         <v>1778.734926060001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>54000</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,15 +2866,17 @@
         <v>1777.692826060001</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>54050</v>
       </c>
-      <c r="J75" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,15 +2905,15 @@
         <v>1777.692826060001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>54000</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -2936,12 +2944,12 @@
         <v>1837.057826060001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>54000</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2975,12 +2983,12 @@
         <v>1837.057826060001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>54100</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3014,12 +3022,12 @@
         <v>1845.031226060001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>54100</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3056,9 +3064,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3095,9 +3101,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3134,9 +3138,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3170,14 +3172,10 @@
         <v>1596.513926060001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>54200</v>
-      </c>
-      <c r="J83" t="n">
-        <v>54050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3214,9 +3212,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3253,9 +3249,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3292,9 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3331,9 +3323,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3370,9 +3360,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3406,14 +3394,10 @@
         <v>1566.087726060001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>54050</v>
-      </c>
-      <c r="J89" t="n">
-        <v>54050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3447,12 +3431,12 @@
         <v>1566.087726060001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>53950</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3486,14 +3470,12 @@
         <v>1566.087726060001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>53950</v>
       </c>
-      <c r="J91" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3527,14 +3509,12 @@
         <v>1572.674726060001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>53950</v>
       </c>
-      <c r="J92" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3568,14 +3548,12 @@
         <v>1572.674726060001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>54050</v>
       </c>
-      <c r="J93" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3609,14 +3587,12 @@
         <v>1549.249526060001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>54050</v>
       </c>
-      <c r="J94" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3650,14 +3626,12 @@
         <v>1553.026426060001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>53950</v>
       </c>
-      <c r="J95" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3691,14 +3665,12 @@
         <v>1654.925326060001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>54000</v>
       </c>
-      <c r="J96" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3732,14 +3704,12 @@
         <v>1722.824426060001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>54100</v>
       </c>
-      <c r="J97" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3773,14 +3743,12 @@
         <v>1724.232726060001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>54200</v>
       </c>
-      <c r="J98" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3814,14 +3782,12 @@
         <v>1727.426026060001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>54250</v>
       </c>
-      <c r="J99" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3855,14 +3821,12 @@
         <v>1725.926026060001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>54450</v>
       </c>
-      <c r="J100" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3896,14 +3860,12 @@
         <v>1751.926926060001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>54300</v>
       </c>
-      <c r="J101" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3937,14 +3899,10 @@
         <v>1751.926926060001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>54400</v>
-      </c>
-      <c r="J102" t="n">
-        <v>54050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3978,14 +3936,10 @@
         <v>1751.926926060001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>54400</v>
-      </c>
-      <c r="J103" t="n">
-        <v>54050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4019,14 +3973,10 @@
         <v>1884.860726060001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>54400</v>
-      </c>
-      <c r="J104" t="n">
-        <v>54050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4060,14 +4010,10 @@
         <v>1903.855826060001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>55000</v>
-      </c>
-      <c r="J105" t="n">
-        <v>54050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4104,9 +4050,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4143,9 +4087,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4182,9 +4124,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4221,9 +4161,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4260,9 +4198,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4299,9 +4235,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4338,9 +4272,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4377,9 +4309,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4416,9 +4346,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4452,12 +4380,10 @@
         <v>1903.523427480001</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4494,9 +4420,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4533,9 +4457,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4569,12 +4491,12 @@
         <v>1889.723727480001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>54800</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4608,12 +4530,12 @@
         <v>1888.016527480001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>54900</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4647,12 +4569,12 @@
         <v>1888.660227480001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>54700</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4686,12 +4608,12 @@
         <v>1888.718027480001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>54750</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4725,12 +4647,12 @@
         <v>1888.718027480001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>54900</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4764,12 +4686,12 @@
         <v>1888.718027480001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>54900</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4803,12 +4725,12 @@
         <v>1890.954027480002</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>54900</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4842,12 +4764,12 @@
         <v>1919.116727480002</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>55000</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4881,12 +4803,12 @@
         <v>1919.116727480002</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>55100</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4920,12 +4842,12 @@
         <v>1917.031927480002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>55100</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4961,10 +4883,10 @@
       <c r="H128" t="n">
         <v>1</v>
       </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>54050</v>
-      </c>
+      <c r="I128" t="n">
+        <v>55000</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4998,12 +4920,12 @@
         <v>1758.648927480001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>54800</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5037,12 +4959,12 @@
         <v>1700.586827480001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>54750</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5078,10 +5000,10 @@
       <c r="H131" t="n">
         <v>1</v>
       </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>54050</v>
-      </c>
+      <c r="I131" t="n">
+        <v>54600</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5117,10 +5039,10 @@
       <c r="H132" t="n">
         <v>1</v>
       </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>54050</v>
-      </c>
+      <c r="I132" t="n">
+        <v>54650</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5156,10 +5078,10 @@
       <c r="H133" t="n">
         <v>1</v>
       </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>54050</v>
-      </c>
+      <c r="I133" t="n">
+        <v>54650</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5195,10 +5117,10 @@
       <c r="H134" t="n">
         <v>1</v>
       </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>54050</v>
-      </c>
+      <c r="I134" t="n">
+        <v>54800</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5234,10 +5156,10 @@
       <c r="H135" t="n">
         <v>1</v>
       </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>54050</v>
-      </c>
+      <c r="I135" t="n">
+        <v>54750</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5271,12 +5193,12 @@
         <v>1796.370727480001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>54750</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5310,12 +5232,12 @@
         <v>1799.287027480001</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>54600</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5349,12 +5271,12 @@
         <v>2013.614327480001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>54650</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5388,12 +5310,12 @@
         <v>1991.695827480001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>54800</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5427,12 +5349,12 @@
         <v>2453.383027480001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>54750</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5466,12 +5388,12 @@
         <v>2453.383027480001</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>54850</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5505,12 +5427,12 @@
         <v>2449.222327480001</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>54850</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5544,12 +5466,12 @@
         <v>2450.699127480001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>54700</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5583,12 +5505,12 @@
         <v>2476.699127480001</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>54050</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>55050</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5625,9 +5547,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5664,9 +5584,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5703,9 +5621,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5742,9 +5658,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5781,9 +5695,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5820,9 +5732,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5859,9 +5769,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5895,12 +5803,10 @@
         <v>3581.472327480001</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5937,9 +5843,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5976,9 +5880,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6015,9 +5917,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6054,9 +5954,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6093,9 +5991,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6132,9 +6028,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6171,9 +6065,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6210,9 +6102,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6249,9 +6139,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6288,9 +6176,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6327,9 +6213,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6366,9 +6250,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6405,9 +6287,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6444,9 +6324,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6483,9 +6361,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6522,9 +6398,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6561,9 +6435,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6600,9 +6472,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6639,9 +6509,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6678,9 +6546,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6717,9 +6583,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6756,9 +6620,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6795,9 +6657,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6834,9 +6694,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6873,9 +6731,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6912,9 +6768,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6951,9 +6805,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6990,9 +6842,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7029,9 +6879,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7068,9 +6916,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7107,9 +6953,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7146,9 +6990,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7185,9 +7027,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7224,9 +7064,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7263,9 +7101,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7302,9 +7138,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7341,9 +7175,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7380,9 +7212,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7419,9 +7249,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7458,9 +7286,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7497,9 +7323,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7536,9 +7360,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7575,9 +7397,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7611,20 +7431,16 @@
         <v>3991.529748090001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>54050</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
@@ -7650,17 +7466,11 @@
         <v>4048.479648090001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7692,14 +7502,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7731,14 +7535,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7770,14 +7568,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7809,14 +7601,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7848,14 +7634,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7887,14 +7667,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7926,14 +7700,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7965,14 +7733,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8004,14 +7766,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8043,14 +7799,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8082,14 +7832,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8121,14 +7865,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8160,14 +7898,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8199,14 +7931,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8238,14 +7964,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8277,14 +7997,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8316,14 +8030,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8355,14 +8063,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8394,14 +8096,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8433,14 +8129,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8472,14 +8162,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8511,14 +8195,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8550,14 +8228,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8589,14 +8261,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8628,14 +8294,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8667,14 +8327,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8706,14 +8360,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8745,14 +8393,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8784,14 +8426,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8823,14 +8459,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8862,14 +8492,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8901,14 +8525,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8940,14 +8558,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8979,14 +8591,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9018,14 +8624,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9057,14 +8657,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9096,14 +8690,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9135,14 +8723,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9174,14 +8756,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9213,14 +8789,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9252,14 +8822,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9291,14 +8855,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9330,14 +8888,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9369,14 +8921,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9408,14 +8954,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9447,14 +8987,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9486,14 +9020,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9525,14 +9053,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9564,14 +9086,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9603,14 +9119,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9642,14 +9152,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9681,14 +9185,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9720,14 +9218,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9759,14 +9251,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9798,14 +9284,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9837,14 +9317,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9876,14 +9350,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9915,14 +9383,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9954,14 +9416,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9993,14 +9449,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10032,14 +9482,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10071,14 +9515,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10110,14 +9548,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10149,14 +9581,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10188,14 +9614,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10227,14 +9647,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10266,14 +9680,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10305,14 +9713,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10344,14 +9746,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10383,14 +9779,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10422,14 +9812,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10461,14 +9845,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10500,14 +9878,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10539,14 +9911,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10578,14 +9944,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10617,14 +9977,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10656,14 +10010,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10695,14 +10043,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10734,14 +10076,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10773,14 +10109,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10812,14 +10142,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10851,14 +10175,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10890,14 +10208,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10929,14 +10241,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10968,14 +10274,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11007,14 +10307,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11046,14 +10340,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11085,14 +10373,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11124,14 +10406,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11163,14 +10439,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11202,14 +10472,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11241,14 +10505,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11280,14 +10538,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11319,14 +10571,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11358,14 +10604,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11397,14 +10637,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11436,14 +10670,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11475,14 +10703,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11514,14 +10736,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11553,14 +10769,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11592,14 +10802,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11631,14 +10835,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11670,14 +10868,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11709,14 +10901,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11745,19 +10931,13 @@
         <v>4061.736810510004</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>54050</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
-        <v>1.021827012025902</v>
+        <v>1</v>
       </c>
       <c r="M302" t="inlineStr"/>
     </row>
@@ -11784,7 +10964,7 @@
         <v>4012.783210510004</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -13698,7 +12878,7 @@
         <v>4482.354704710005</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13764,7 +12944,7 @@
         <v>4560.943204710004</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13797,7 +12977,7 @@
         <v>4417.361113560004</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13830,7 +13010,7 @@
         <v>4423.625113560004</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13863,7 +13043,7 @@
         <v>4368.522713560004</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13896,7 +13076,7 @@
         <v>4368.522713560004</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13929,7 +13109,7 @@
         <v>4402.521313560004</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13962,7 +13142,7 @@
         <v>4346.462113560005</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13995,7 +13175,7 @@
         <v>4354.852513560005</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14028,7 +13208,7 @@
         <v>4353.852513560005</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14061,7 +13241,7 @@
         <v>4353.852513560005</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14094,7 +13274,7 @@
         <v>4353.852513560005</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14127,7 +13307,7 @@
         <v>4353.852513560005</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14160,7 +13340,7 @@
         <v>4341.681013560004</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14193,7 +13373,7 @@
         <v>3775.816813560004</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14226,7 +13406,7 @@
         <v>3779.964613560005</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14259,7 +13439,7 @@
         <v>3704.457513560005</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14292,7 +13472,7 @@
         <v>3703.629513560005</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14325,7 +13505,7 @@
         <v>3866.183413560005</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14688,7 +13868,7 @@
         <v>3198.709213560005</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14754,7 +13934,7 @@
         <v>3218.476313560005</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14787,7 +13967,7 @@
         <v>3218.476313560005</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14820,7 +14000,7 @@
         <v>3218.476313560005</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14853,7 +14033,7 @@
         <v>3241.522613560005</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14886,7 +14066,7 @@
         <v>3249.522613560005</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14919,7 +14099,7 @@
         <v>3250.459513560005</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14952,7 +14132,7 @@
         <v>3326.741713560005</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14985,7 +14165,7 @@
         <v>3326.741713560005</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15018,7 +14198,7 @@
         <v>3317.849113560005</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15051,7 +14231,7 @@
         <v>3304.589413560005</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15084,7 +14264,7 @@
         <v>3304.598413560005</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15117,7 +14297,7 @@
         <v>3143.350313560005</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15150,7 +14330,7 @@
         <v>3143.350313560005</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15183,7 +14363,7 @@
         <v>3143.166313560005</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15282,7 +14462,7 @@
         <v>3154.414113560005</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15315,7 +14495,7 @@
         <v>3154.414113560005</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15348,7 +14528,7 @@
         <v>3154.414113560005</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -19506,7 +18686,7 @@
         <v>3413.312613790005</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19539,7 +18719,7 @@
         <v>3513.312613790005</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -21354,7 +20534,7 @@
         <v>3002.206145860006</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21552,7 +20732,7 @@
         <v>2953.484446840006</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -24885,7 +24065,7 @@
         <v>3802.474719210007</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24918,7 +24098,7 @@
         <v>3819.155519210007</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24951,7 +24131,7 @@
         <v>3813.454119210007</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24984,7 +24164,7 @@
         <v>3812.117219210007</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25017,7 +24197,7 @@
         <v>3812.117219210007</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25050,7 +24230,7 @@
         <v>3818.512019210007</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25083,7 +24263,7 @@
         <v>3818.512019210007</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25116,7 +24296,7 @@
         <v>3830.200519210007</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25149,7 +24329,7 @@
         <v>3778.210519210008</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25182,7 +24362,7 @@
         <v>3938.653519210008</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25215,7 +24395,7 @@
         <v>3886.238019210008</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25248,7 +24428,7 @@
         <v>3948.952119210008</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25259,6 +24439,6 @@
       <c r="M711" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest LTC.xlsx
+++ b/BackTest/2020-01-12 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2477.02522606</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2521.06142606</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>2874.74052606</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>2562.321526060001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>2611.312126060001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>3285.283826060001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2959.820026060001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2827,17 +2827,11 @@
         <v>1778.734926060001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>54000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2866,17 +2860,11 @@
         <v>1777.692826060001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>54050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2905,17 +2893,11 @@
         <v>1777.692826060001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>54000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2944,17 +2926,11 @@
         <v>1837.057826060001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>54000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2983,17 +2959,11 @@
         <v>1837.057826060001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>54100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3022,17 +2992,11 @@
         <v>1845.031226060001</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>54100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3065,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3102,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3139,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3176,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3213,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3250,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3287,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3324,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3361,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3398,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3431,17 +3355,11 @@
         <v>1566.087726060001</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>53950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3478,7 +3396,7 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3899,9 +3817,11 @@
         <v>1751.926926060001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>54400</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4491,11 +4411,9 @@
         <v>1889.723727480001</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>54800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4530,11 +4448,9 @@
         <v>1888.016527480001</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>54900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4569,11 +4485,9 @@
         <v>1888.660227480001</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>54700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -4608,11 +4522,9 @@
         <v>1888.718027480001</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>54750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4647,11 +4559,9 @@
         <v>1888.718027480001</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>54900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -4686,11 +4596,9 @@
         <v>1888.718027480001</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>54900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4725,11 +4633,9 @@
         <v>1890.954027480002</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>54900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -4764,11 +4670,9 @@
         <v>1919.116727480002</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>55000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -4803,11 +4707,9 @@
         <v>1919.116727480002</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>55100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -4842,11 +4744,9 @@
         <v>1917.031927480002</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>55100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -4881,11 +4781,9 @@
         <v>1817.728727480001</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>55000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -4920,11 +4818,9 @@
         <v>1758.648927480001</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>54800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -4959,11 +4855,9 @@
         <v>1700.586827480001</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>54750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -4998,11 +4892,9 @@
         <v>1748.773527480001</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>54600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5037,11 +4929,9 @@
         <v>1748.773527480001</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>54650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5076,11 +4966,9 @@
         <v>1852.872527480001</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>54650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5115,11 +5003,9 @@
         <v>1852.351727480001</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>54800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5154,11 +5040,9 @@
         <v>1852.351727480001</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>54750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5193,11 +5077,9 @@
         <v>1796.370727480001</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>54750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5232,11 +5114,9 @@
         <v>1799.287027480001</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>54600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5271,11 +5151,9 @@
         <v>2013.614327480001</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>54650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5310,11 +5188,9 @@
         <v>1991.695827480001</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>54800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5349,11 +5225,9 @@
         <v>2453.383027480001</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>54750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5388,11 +5262,9 @@
         <v>2453.383027480001</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>54850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5427,11 +5299,9 @@
         <v>2449.222327480001</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>54850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5466,11 +5336,9 @@
         <v>2450.699127480001</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>54700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5505,11 +5373,9 @@
         <v>2476.699127480001</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>55050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5766,18 +5632,16 @@
         <v>2698.361427480001</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
@@ -5807,11 +5671,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5844,11 +5704,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5881,11 +5737,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5918,11 +5770,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5955,11 +5803,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5992,11 +5836,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6029,11 +5869,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6066,11 +5902,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6103,11 +5935,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6140,11 +5968,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6177,11 +6001,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6214,11 +6034,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6251,11 +6067,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6288,11 +6100,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6133,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6362,11 +6166,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6399,11 +6199,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6436,11 +6232,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6473,11 +6265,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6510,11 +6298,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6547,11 +6331,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6584,11 +6364,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6621,11 +6397,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6658,11 +6430,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6695,11 +6463,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6732,11 +6496,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6769,11 +6529,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6806,11 +6562,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6843,11 +6595,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6880,11 +6628,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6917,11 +6661,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6954,11 +6694,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6991,11 +6727,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7028,11 +6760,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7065,11 +6793,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7102,11 +6826,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7139,11 +6859,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7176,11 +6892,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7213,11 +6925,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7250,11 +6958,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7287,11 +6991,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7324,11 +7024,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7361,11 +7057,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7398,11 +7090,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7431,16 +7119,14 @@
         <v>3991.529748090001</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
       <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
@@ -7466,7 +7152,7 @@
         <v>4048.479648090001</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -12878,7 +12564,7 @@
         <v>4482.354704710005</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12944,7 +12630,7 @@
         <v>4560.943204710004</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12977,7 +12663,7 @@
         <v>4417.361113560004</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13010,7 +12696,7 @@
         <v>4423.625113560004</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13043,7 +12729,7 @@
         <v>4368.522713560004</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13076,7 +12762,7 @@
         <v>4368.522713560004</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13109,7 +12795,7 @@
         <v>4402.521313560004</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13142,7 +12828,7 @@
         <v>4346.462113560005</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13175,7 +12861,7 @@
         <v>4354.852513560005</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13208,7 +12894,7 @@
         <v>4353.852513560005</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13241,7 +12927,7 @@
         <v>4353.852513560005</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13274,7 +12960,7 @@
         <v>4353.852513560005</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13307,7 +12993,7 @@
         <v>4353.852513560005</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13340,7 +13026,7 @@
         <v>4341.681013560004</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13373,7 +13059,7 @@
         <v>3775.816813560004</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13406,7 +13092,7 @@
         <v>3779.964613560005</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13439,7 +13125,7 @@
         <v>3704.457513560005</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13472,7 +13158,7 @@
         <v>3703.629513560005</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13505,7 +13191,7 @@
         <v>3866.183413560005</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13868,7 +13554,7 @@
         <v>3198.709213560005</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13934,7 +13620,7 @@
         <v>3218.476313560005</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13967,7 +13653,7 @@
         <v>3218.476313560005</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14000,7 +13686,7 @@
         <v>3218.476313560005</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14033,7 +13719,7 @@
         <v>3241.522613560005</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14066,7 +13752,7 @@
         <v>3249.522613560005</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14099,7 +13785,7 @@
         <v>3250.459513560005</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14132,7 +13818,7 @@
         <v>3326.741713560005</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14165,7 +13851,7 @@
         <v>3326.741713560005</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14198,7 +13884,7 @@
         <v>3317.849113560005</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14231,7 +13917,7 @@
         <v>3304.589413560005</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14264,7 +13950,7 @@
         <v>3304.598413560005</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14297,7 +13983,7 @@
         <v>3143.350313560005</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14330,7 +14016,7 @@
         <v>3143.350313560005</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14363,7 +14049,7 @@
         <v>3143.166313560005</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14462,7 +14148,7 @@
         <v>3154.414113560005</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14495,7 +14181,7 @@
         <v>3154.414113560005</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14528,7 +14214,7 @@
         <v>3154.414113560005</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -22019,10 +21705,14 @@
         <v>3230.742110100007</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>54300</v>
+      </c>
+      <c r="J638" t="n">
+        <v>54300</v>
+      </c>
       <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
@@ -22052,11 +21742,19 @@
         <v>3430.916710100007</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>54350</v>
+      </c>
+      <c r="J639" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22088,8 +21786,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22118,11 +21822,19 @@
         <v>3701.059210100007</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>54450</v>
+      </c>
+      <c r="J641" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22154,8 +21866,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22187,8 +21905,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22220,8 +21944,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22253,8 +21983,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22286,8 +22022,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22319,8 +22061,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22352,8 +22100,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22385,8 +22139,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22418,8 +22178,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22451,8 +22217,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22484,8 +22256,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22517,8 +22295,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22550,8 +22334,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22583,8 +22373,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22616,8 +22412,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22649,8 +22451,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22682,8 +22490,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22715,8 +22529,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22748,8 +22568,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22781,8 +22607,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22814,8 +22646,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22847,8 +22685,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22880,8 +22724,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22913,8 +22763,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22946,8 +22802,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22979,8 +22841,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23012,8 +22880,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23045,8 +22919,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23078,8 +22958,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23111,8 +22997,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23144,8 +23036,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23177,8 +23075,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23210,8 +23114,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23243,8 +23153,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23276,8 +23192,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23309,8 +23231,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23342,8 +23270,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23375,8 +23309,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23408,8 +23348,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23441,8 +23387,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23474,8 +23426,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23507,8 +23465,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23540,8 +23504,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23573,8 +23543,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23606,8 +23582,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23639,8 +23621,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23672,8 +23660,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23705,8 +23699,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23738,8 +23738,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23771,8 +23777,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23804,8 +23816,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23837,8 +23855,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23870,8 +23894,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23903,8 +23933,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23936,8 +23972,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23969,8 +24011,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24002,8 +24050,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24035,8 +24089,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24068,8 +24128,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24101,8 +24167,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24134,8 +24206,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24167,8 +24245,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24200,8 +24284,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24233,8 +24323,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24266,8 +24362,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24299,8 +24401,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24332,8 +24440,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24365,8 +24479,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24398,8 +24518,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24431,14 +24557,20 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>54300</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
       <c r="M711" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest LTC.xlsx
+++ b/BackTest/2020-01-12 BackTest LTC.xlsx
@@ -451,7 +451,7 @@
         <v>2477.02522606</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2521.06142606</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>2874.74052606</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>2562.321526060001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>2611.312126060001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>3285.283826060001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2959.820026060001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -3355,10 +3355,14 @@
         <v>1566.087726060001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>53950</v>
+      </c>
+      <c r="J90" t="n">
+        <v>53950</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
@@ -3393,7 +3397,9 @@
       <c r="I91" t="n">
         <v>53950</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>53950</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -3432,7 +3438,9 @@
       <c r="I92" t="n">
         <v>53950</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>53950</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3471,7 +3479,9 @@
       <c r="I93" t="n">
         <v>54050</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>53950</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3510,7 +3520,9 @@
       <c r="I94" t="n">
         <v>54050</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>53950</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3549,7 +3561,9 @@
       <c r="I95" t="n">
         <v>53950</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>53950</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3588,7 +3602,9 @@
       <c r="I96" t="n">
         <v>54000</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>53950</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3627,7 +3643,9 @@
       <c r="I97" t="n">
         <v>54100</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>53950</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3666,7 +3684,9 @@
       <c r="I98" t="n">
         <v>54200</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>53950</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3705,7 +3725,9 @@
       <c r="I99" t="n">
         <v>54250</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>53950</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3744,7 +3766,9 @@
       <c r="I100" t="n">
         <v>54450</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>53950</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3783,7 +3807,9 @@
       <c r="I101" t="n">
         <v>54300</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>53950</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3822,7 +3848,9 @@
       <c r="I102" t="n">
         <v>54400</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>53950</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3856,10 +3884,14 @@
         <v>1751.926926060001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>54400</v>
+      </c>
+      <c r="J103" t="n">
+        <v>53950</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3893,10 +3925,14 @@
         <v>1884.860726060001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>54400</v>
+      </c>
+      <c r="J104" t="n">
+        <v>53950</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3930,10 +3966,14 @@
         <v>1903.855826060001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>55000</v>
+      </c>
+      <c r="J105" t="n">
+        <v>53950</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3967,10 +4007,14 @@
         <v>1903.855826060001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>55050</v>
+      </c>
+      <c r="J106" t="n">
+        <v>53950</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4004,10 +4048,14 @@
         <v>1976.708826060001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>55050</v>
+      </c>
+      <c r="J107" t="n">
+        <v>53950</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4041,10 +4089,14 @@
         <v>1982.097526060001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>55500</v>
+      </c>
+      <c r="J108" t="n">
+        <v>53950</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4078,10 +4130,14 @@
         <v>1961.159226060001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>55550</v>
+      </c>
+      <c r="J109" t="n">
+        <v>53950</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4115,10 +4171,14 @@
         <v>1940.350826060002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>55350</v>
+      </c>
+      <c r="J110" t="n">
+        <v>53950</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4152,10 +4212,14 @@
         <v>1943.355332840001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>55150</v>
+      </c>
+      <c r="J111" t="n">
+        <v>53950</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4189,10 +4253,14 @@
         <v>1882.767525400001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>55250</v>
+      </c>
+      <c r="J112" t="n">
+        <v>53950</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4226,10 +4294,14 @@
         <v>1882.767525400001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>55050</v>
+      </c>
+      <c r="J113" t="n">
+        <v>53950</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4263,10 +4335,14 @@
         <v>1902.767525400001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>55050</v>
+      </c>
+      <c r="J114" t="n">
+        <v>53950</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4300,10 +4376,14 @@
         <v>1903.523427480001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>55100</v>
+      </c>
+      <c r="J115" t="n">
+        <v>53950</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4337,10 +4417,14 @@
         <v>1893.374827480001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>55150</v>
+      </c>
+      <c r="J116" t="n">
+        <v>53950</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4374,10 +4458,14 @@
         <v>1889.383027480001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>55050</v>
+      </c>
+      <c r="J117" t="n">
+        <v>53950</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4411,10 +4499,14 @@
         <v>1889.723727480001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>54800</v>
+      </c>
+      <c r="J118" t="n">
+        <v>53950</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4448,10 +4540,14 @@
         <v>1888.016527480001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>54900</v>
+      </c>
+      <c r="J119" t="n">
+        <v>53950</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4485,10 +4581,14 @@
         <v>1888.660227480001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>54700</v>
+      </c>
+      <c r="J120" t="n">
+        <v>53950</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4522,10 +4622,14 @@
         <v>1888.718027480001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>54750</v>
+      </c>
+      <c r="J121" t="n">
+        <v>53950</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4559,10 +4663,14 @@
         <v>1888.718027480001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>54900</v>
+      </c>
+      <c r="J122" t="n">
+        <v>53950</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4596,10 +4704,14 @@
         <v>1888.718027480001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>54900</v>
+      </c>
+      <c r="J123" t="n">
+        <v>53950</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4633,10 +4745,14 @@
         <v>1890.954027480002</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>54900</v>
+      </c>
+      <c r="J124" t="n">
+        <v>53950</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4670,10 +4786,14 @@
         <v>1919.116727480002</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>55000</v>
+      </c>
+      <c r="J125" t="n">
+        <v>53950</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4707,10 +4827,14 @@
         <v>1919.116727480002</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>55100</v>
+      </c>
+      <c r="J126" t="n">
+        <v>53950</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4744,10 +4868,14 @@
         <v>1917.031927480002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>55100</v>
+      </c>
+      <c r="J127" t="n">
+        <v>53950</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4781,10 +4909,14 @@
         <v>1817.728727480001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>55000</v>
+      </c>
+      <c r="J128" t="n">
+        <v>53950</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4818,10 +4950,14 @@
         <v>1758.648927480001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>54800</v>
+      </c>
+      <c r="J129" t="n">
+        <v>53950</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4855,10 +4991,14 @@
         <v>1700.586827480001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>54750</v>
+      </c>
+      <c r="J130" t="n">
+        <v>53950</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4892,10 +5032,14 @@
         <v>1748.773527480001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>54600</v>
+      </c>
+      <c r="J131" t="n">
+        <v>53950</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4929,10 +5073,14 @@
         <v>1748.773527480001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>54650</v>
+      </c>
+      <c r="J132" t="n">
+        <v>53950</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4966,10 +5114,14 @@
         <v>1852.872527480001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>54650</v>
+      </c>
+      <c r="J133" t="n">
+        <v>53950</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5003,10 +5155,14 @@
         <v>1852.351727480001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>54800</v>
+      </c>
+      <c r="J134" t="n">
+        <v>53950</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5040,10 +5196,14 @@
         <v>1852.351727480001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>54750</v>
+      </c>
+      <c r="J135" t="n">
+        <v>53950</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5077,10 +5237,14 @@
         <v>1796.370727480001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>54750</v>
+      </c>
+      <c r="J136" t="n">
+        <v>53950</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5114,10 +5278,14 @@
         <v>1799.287027480001</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>54600</v>
+      </c>
+      <c r="J137" t="n">
+        <v>53950</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5151,10 +5319,14 @@
         <v>2013.614327480001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>54650</v>
+      </c>
+      <c r="J138" t="n">
+        <v>53950</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5188,10 +5360,14 @@
         <v>1991.695827480001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>54800</v>
+      </c>
+      <c r="J139" t="n">
+        <v>53950</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5225,10 +5401,14 @@
         <v>2453.383027480001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>54750</v>
+      </c>
+      <c r="J140" t="n">
+        <v>53950</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5262,10 +5442,14 @@
         <v>2453.383027480001</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>54850</v>
+      </c>
+      <c r="J141" t="n">
+        <v>53950</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5299,10 +5483,14 @@
         <v>2449.222327480001</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>54850</v>
+      </c>
+      <c r="J142" t="n">
+        <v>53950</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5336,10 +5524,14 @@
         <v>2450.699127480001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>54700</v>
+      </c>
+      <c r="J143" t="n">
+        <v>53950</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5373,10 +5565,14 @@
         <v>2476.699127480001</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>55050</v>
+      </c>
+      <c r="J144" t="n">
+        <v>53950</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5413,7 +5609,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>53950</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5450,7 +5648,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>53950</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5487,7 +5687,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>53950</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5524,7 +5726,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>53950</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5561,7 +5765,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>53950</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5598,7 +5804,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>53950</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5632,16 +5840,20 @@
         <v>2698.361427480001</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>53950</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
       <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
@@ -5670,8 +5882,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5703,8 +5921,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5736,8 +5960,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5769,8 +5999,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5802,8 +6038,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5835,8 +6077,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5868,8 +6116,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5901,8 +6155,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5934,8 +6194,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5967,8 +6233,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6000,8 +6272,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6033,8 +6311,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6066,8 +6350,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6099,8 +6389,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6132,8 +6428,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6165,8 +6467,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6198,8 +6506,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6231,8 +6545,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6264,8 +6584,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6297,8 +6623,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6330,8 +6662,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6363,8 +6701,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6396,8 +6740,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6429,8 +6779,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6462,8 +6818,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6495,8 +6857,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6528,8 +6896,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6561,8 +6935,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6594,8 +6974,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6627,8 +7013,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6660,8 +7052,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6693,8 +7091,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6726,8 +7130,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6759,8 +7169,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6792,8 +7208,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6825,8 +7247,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6858,8 +7286,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6891,8 +7325,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6924,8 +7364,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6957,8 +7403,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6990,8 +7442,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7023,8 +7481,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7056,8 +7520,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7089,8 +7559,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7122,8 +7598,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7155,8 +7637,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7188,8 +7676,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7221,8 +7715,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7254,8 +7754,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7287,8 +7793,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7320,8 +7832,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7353,8 +7871,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7386,8 +7910,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7419,8 +7949,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7452,8 +7988,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7485,8 +8027,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7518,8 +8066,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7551,8 +8105,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7584,8 +8144,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7617,8 +8183,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7650,8 +8222,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7683,8 +8261,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7716,8 +8300,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7749,8 +8339,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7782,8 +8378,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7815,8 +8417,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7848,8 +8456,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7881,8 +8495,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7914,8 +8534,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7947,8 +8573,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7980,8 +8612,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8013,8 +8651,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8046,8 +8690,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8079,8 +8729,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8112,8 +8768,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8145,8 +8807,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8178,8 +8846,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8211,8 +8885,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8244,8 +8924,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8277,8 +8963,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8310,8 +9002,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8343,8 +9041,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8376,8 +9080,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8409,8 +9119,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8442,8 +9158,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8475,8 +9197,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8508,8 +9236,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8541,8 +9275,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8574,8 +9314,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8607,8 +9353,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8640,8 +9392,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8673,8 +9431,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8706,8 +9470,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8739,8 +9509,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8772,8 +9548,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8805,8 +9587,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8838,8 +9626,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8871,8 +9665,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8904,8 +9704,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8937,8 +9743,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8970,8 +9782,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9003,8 +9821,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9036,8 +9860,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9069,8 +9899,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9102,8 +9938,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9135,8 +9977,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9168,8 +10016,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9201,8 +10055,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9234,8 +10094,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9267,8 +10133,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9300,8 +10172,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9333,8 +10211,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9366,8 +10250,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9399,8 +10289,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9432,8 +10328,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9465,8 +10367,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9498,8 +10406,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9531,8 +10445,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9564,8 +10484,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9597,8 +10523,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9630,8 +10562,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9663,8 +10601,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9696,8 +10640,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9729,8 +10679,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9762,8 +10718,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9795,8 +10757,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9828,8 +10796,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9861,8 +10835,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9894,8 +10874,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9927,8 +10913,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9960,8 +10952,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9993,8 +10991,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10026,8 +11030,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10059,8 +11069,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10092,8 +11108,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10125,8 +11147,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10158,8 +11186,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10191,8 +11225,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10224,8 +11264,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10257,8 +11303,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10290,8 +11342,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10323,8 +11381,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10356,8 +11420,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10389,8 +11459,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10422,8 +11498,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10455,8 +11537,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10488,8 +11576,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10521,8 +11615,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10554,8 +11654,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10587,8 +11693,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10620,8 +11732,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10653,8 +11771,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10686,8 +11810,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10719,8 +11849,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10752,8 +11888,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10785,8 +11927,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10818,8 +11966,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10851,8 +12005,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10884,8 +12044,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10917,8 +12083,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10950,8 +12122,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10983,8 +12161,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11016,8 +12200,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11049,8 +12239,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11082,8 +12278,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11115,8 +12317,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11148,8 +12356,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11181,8 +12395,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11214,8 +12434,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11247,8 +12473,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11280,8 +12512,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11313,8 +12551,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11346,8 +12590,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11379,8 +12629,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11412,8 +12668,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11445,8 +12707,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11478,8 +12746,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11511,8 +12785,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11544,8 +12824,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11577,8 +12863,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11610,8 +12902,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11643,8 +12941,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11676,8 +12980,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11709,8 +13019,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11742,8 +13058,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11775,8 +13097,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11808,8 +13136,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11841,8 +13175,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11874,8 +13214,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11907,8 +13253,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11940,8 +13292,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11973,8 +13331,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12006,8 +13370,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12039,8 +13409,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12072,8 +13448,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12105,8 +13487,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12138,8 +13526,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12171,8 +13565,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12204,8 +13604,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12237,8 +13643,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12270,8 +13682,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12300,13 +13718,19 @@
         <v>4464.496804710005</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>53950</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L353" t="n">
-        <v>1</v>
+        <v>1.03485171455051</v>
       </c>
       <c r="M353" t="inlineStr"/>
     </row>
@@ -12366,7 +13790,7 @@
         <v>4414.348804710005</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12399,7 +13823,7 @@
         <v>4434.821804710004</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12432,7 +13856,7 @@
         <v>4436.164804710004</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12498,7 +13922,7 @@
         <v>4425.419404710005</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12564,7 +13988,7 @@
         <v>4482.354704710005</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12630,7 +14054,7 @@
         <v>4560.943204710004</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12663,7 +14087,7 @@
         <v>4417.361113560004</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12696,7 +14120,7 @@
         <v>4423.625113560004</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12729,7 +14153,7 @@
         <v>4368.522713560004</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12762,7 +14186,7 @@
         <v>4368.522713560004</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12795,7 +14219,7 @@
         <v>4402.521313560004</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12828,7 +14252,7 @@
         <v>4346.462113560005</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12861,7 +14285,7 @@
         <v>4354.852513560005</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12894,7 +14318,7 @@
         <v>4353.852513560005</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12927,7 +14351,7 @@
         <v>4353.852513560005</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12960,7 +14384,7 @@
         <v>4353.852513560005</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12993,7 +14417,7 @@
         <v>4353.852513560005</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13026,7 +14450,7 @@
         <v>4341.681013560004</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13059,7 +14483,7 @@
         <v>3775.816813560004</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13092,7 +14516,7 @@
         <v>3779.964613560005</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13224,7 +14648,7 @@
         <v>3850.698413560005</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13290,7 +14714,7 @@
         <v>3857.111313560005</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -21705,14 +23129,10 @@
         <v>3230.742110100007</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>54300</v>
-      </c>
-      <c r="J638" t="n">
-        <v>54300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
@@ -21742,19 +23162,11 @@
         <v>3430.916710100007</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
-      </c>
-      <c r="I639" t="n">
-        <v>54350</v>
-      </c>
-      <c r="J639" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21786,14 +23198,8 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21822,19 +23228,11 @@
         <v>3701.059210100007</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>54450</v>
-      </c>
-      <c r="J641" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21866,14 +23264,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21905,14 +23297,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21944,14 +23330,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21983,14 +23363,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22022,14 +23396,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22061,14 +23429,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22100,14 +23462,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22139,14 +23495,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22178,14 +23528,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22217,14 +23561,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22256,14 +23594,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22295,14 +23627,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22334,14 +23660,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22373,14 +23693,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22412,14 +23726,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22451,14 +23759,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22490,14 +23792,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22529,14 +23825,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22568,14 +23858,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22607,14 +23891,8 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22646,14 +23924,8 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22685,14 +23957,8 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22724,14 +23990,8 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22763,14 +24023,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22802,14 +24056,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22841,14 +24089,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22880,14 +24122,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22919,14 +24155,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22958,14 +24188,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22997,14 +24221,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23036,14 +24254,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23075,14 +24287,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23114,14 +24320,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23153,14 +24353,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23192,14 +24386,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23231,14 +24419,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23270,14 +24452,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23309,14 +24485,8 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23348,14 +24518,8 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23387,14 +24551,8 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23426,14 +24584,8 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23465,14 +24617,8 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23504,14 +24650,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23543,14 +24683,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23582,14 +24716,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23621,14 +24749,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23660,14 +24782,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23699,14 +24815,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23738,14 +24848,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23777,14 +24881,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23816,14 +24914,8 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23855,14 +24947,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23894,14 +24980,8 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23933,14 +25013,8 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23972,14 +25046,8 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24011,14 +25079,8 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24050,14 +25112,8 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24089,14 +25145,8 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24128,14 +25178,8 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24167,14 +25211,8 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24206,14 +25244,8 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24245,14 +25277,8 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24284,14 +25310,8 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24323,14 +25343,8 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24362,14 +25376,8 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24401,14 +25409,8 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24440,14 +25442,8 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24479,14 +25475,8 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24518,14 +25508,8 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24557,14 +25541,8 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>54300</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
